--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H2">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>426.3090180615652</v>
+        <v>465.6534118035023</v>
       </c>
       <c r="R2">
-        <v>426.3090180615652</v>
+        <v>4190.88070623152</v>
       </c>
       <c r="S2">
-        <v>0.05264406909141525</v>
+        <v>0.05044984765439053</v>
       </c>
       <c r="T2">
-        <v>0.05264406909141525</v>
+        <v>0.0504498476543905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H3">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>438.9514346443381</v>
+        <v>449.4511343513773</v>
       </c>
       <c r="R3">
-        <v>438.9514346443381</v>
+        <v>4045.060209162396</v>
       </c>
       <c r="S3">
-        <v>0.05420525645520174</v>
+        <v>0.04869445961600373</v>
       </c>
       <c r="T3">
-        <v>0.05420525645520174</v>
+        <v>0.04869445961600371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H4">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>241.7162593521876</v>
+        <v>287.734757547768</v>
       </c>
       <c r="R4">
-        <v>241.7162593521876</v>
+        <v>2589.612817929912</v>
       </c>
       <c r="S4">
-        <v>0.02984906938097506</v>
+        <v>0.03117377499057919</v>
       </c>
       <c r="T4">
-        <v>0.02984906938097506</v>
+        <v>0.03117377499057918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H5">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>83.20165993181264</v>
+        <v>90.95794656348268</v>
       </c>
       <c r="R5">
-        <v>83.20165993181264</v>
+        <v>818.6215190713441</v>
       </c>
       <c r="S5">
-        <v>0.01027441069364907</v>
+        <v>0.009854570869160294</v>
       </c>
       <c r="T5">
-        <v>0.01027441069364907</v>
+        <v>0.009854570869160289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H6">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>953.186479252376</v>
+        <v>1030.877619003275</v>
       </c>
       <c r="R6">
-        <v>953.186479252376</v>
+        <v>9277.89857102948</v>
       </c>
       <c r="S6">
-        <v>0.1177071390582647</v>
+        <v>0.1116873999217736</v>
       </c>
       <c r="T6">
-        <v>0.1177071390582647</v>
+        <v>0.1116873999217735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H7">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>981.453722123684</v>
+        <v>995.0085267151143</v>
       </c>
       <c r="R7">
-        <v>981.453722123684</v>
+        <v>8955.076740436029</v>
       </c>
       <c r="S7">
-        <v>0.1211978057429794</v>
+        <v>0.107801268744445</v>
       </c>
       <c r="T7">
-        <v>0.1211978057429794</v>
+        <v>0.107801268744445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H8">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>540.4546009315072</v>
+        <v>636.995916375882</v>
       </c>
       <c r="R8">
-        <v>540.4546009315072</v>
+        <v>5732.963247382938</v>
       </c>
       <c r="S8">
-        <v>0.06673968447015745</v>
+        <v>0.06901344674608142</v>
       </c>
       <c r="T8">
-        <v>0.06673968447015745</v>
+        <v>0.0690134467460814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H9">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>186.0310102257911</v>
+        <v>201.3654555211507</v>
       </c>
       <c r="R9">
-        <v>186.0310102257911</v>
+        <v>1812.289099690356</v>
       </c>
       <c r="S9">
-        <v>0.02297260658478026</v>
+        <v>0.02181634730121094</v>
       </c>
       <c r="T9">
-        <v>0.02297260658478026</v>
+        <v>0.02181634730121093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H10">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I10">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J10">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>1296.738549059037</v>
+        <v>1553.411250735742</v>
       </c>
       <c r="R10">
-        <v>1296.738549059037</v>
+        <v>13980.70125662168</v>
       </c>
       <c r="S10">
-        <v>0.1601317140335674</v>
+        <v>0.1682997675045597</v>
       </c>
       <c r="T10">
-        <v>0.1601317140335674</v>
+        <v>0.1682997675045596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H11">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I11">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J11">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>1335.19400799042</v>
+        <v>1499.360749990579</v>
       </c>
       <c r="R11">
-        <v>1335.19400799042</v>
+        <v>13494.24674991521</v>
       </c>
       <c r="S11">
-        <v>0.1648805036466303</v>
+        <v>0.1624438251682289</v>
       </c>
       <c r="T11">
-        <v>0.1648805036466303</v>
+        <v>0.1624438251682289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H12">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I12">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J12">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>735.2478557961631</v>
+        <v>959.877879711612</v>
       </c>
       <c r="R12">
-        <v>735.2478557961631</v>
+        <v>8638.900917404508</v>
       </c>
       <c r="S12">
-        <v>0.09079432355394917</v>
+        <v>0.103995142246923</v>
       </c>
       <c r="T12">
-        <v>0.09079432355394917</v>
+        <v>0.1039951422469229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H13">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I13">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J13">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>253.0812044977691</v>
+        <v>303.4340433334107</v>
       </c>
       <c r="R13">
-        <v>253.0812044977691</v>
+        <v>2730.906390000696</v>
       </c>
       <c r="S13">
-        <v>0.03125250428879053</v>
+        <v>0.03287466787806142</v>
       </c>
       <c r="T13">
-        <v>0.03125250428879053</v>
+        <v>0.0328746678780614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H14">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>224.3638993462625</v>
+        <v>272.056706171569</v>
       </c>
       <c r="R14">
-        <v>224.3638993462625</v>
+        <v>2448.510355544121</v>
       </c>
       <c r="S14">
-        <v>0.02770626029097568</v>
+        <v>0.02947518268265743</v>
       </c>
       <c r="T14">
-        <v>0.02770626029097568</v>
+        <v>0.02947518268265741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H15">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>231.0175279618813</v>
+        <v>262.5905707919724</v>
       </c>
       <c r="R15">
-        <v>231.0175279618813</v>
+        <v>2363.315137127751</v>
       </c>
       <c r="S15">
-        <v>0.02852790391029661</v>
+        <v>0.0284496021206535</v>
       </c>
       <c r="T15">
-        <v>0.02852790391029661</v>
+        <v>0.02844960212065348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H16">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>127.213828903374</v>
+        <v>168.108229007358</v>
       </c>
       <c r="R16">
-        <v>127.213828903374</v>
+        <v>1512.974061066222</v>
       </c>
       <c r="S16">
-        <v>0.01570938759077703</v>
+        <v>0.01821319102983284</v>
       </c>
       <c r="T16">
-        <v>0.01570938759077703</v>
+        <v>0.01821319102983283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H17">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>43.78853850961071</v>
+        <v>53.14192640906268</v>
       </c>
       <c r="R17">
-        <v>43.78853850961071</v>
+        <v>478.2773376815641</v>
       </c>
       <c r="S17">
-        <v>0.005407361207590354</v>
+        <v>0.005757505525438696</v>
       </c>
       <c r="T17">
-        <v>0.005407361207590354</v>
+        <v>0.005757505525438693</v>
       </c>
     </row>
   </sheetData>
